--- a/Internship_artifacts/Unit_Test_Plan_v0.1.xlsx
+++ b/Internship_artifacts/Unit_Test_Plan_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infosystechnologies-my.sharepoint.com/personal/kamaljeet_kaur01_ad_infosys_com1/Documents/Infosys/CC/Events/Oct 2021 - Mar 2022/CC2.0/Internship/Jan-Apr 2022/Artifacts/internship/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ankitha B M\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9D4FEA-5A3F-460B-9A40-165575443B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF426F9-F5DF-4796-97BE-A2500923B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3B83BB6-2AB9-4547-8541-9F6969E92BF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C3B83BB6-2AB9-4547-8541-9F6969E92BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>Actual Result</t>
   </si>
@@ -52,6 +52,201 @@
   </si>
   <si>
     <t>Sl: No:</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Error message returned</t>
+  </si>
+  <si>
+    <t>Submit height, weight, medications</t>
+  </si>
+  <si>
+    <t>Non-empty symptoms</t>
+  </si>
+  <si>
+    <t>Ask follow-up question</t>
+  </si>
+  <si>
+    <t>Prior plan exists</t>
+  </si>
+  <si>
+    <t>Valid follow-up question</t>
+  </si>
+  <si>
+    <t>Validation error shown</t>
+  </si>
+  <si>
+    <t>Plan already generated</t>
+  </si>
+  <si>
+    <t>Login with valid credentials</t>
+  </si>
+  <si>
+    <t>Valid input</t>
+  </si>
+  <si>
+    <t>User successfully logged in</t>
+  </si>
+  <si>
+    <t>Login with invalid credentials</t>
+  </si>
+  <si>
+    <t>Send incorrect username or password</t>
+  </si>
+  <si>
+    <t>Invalid input</t>
+  </si>
+  <si>
+    <t>Empty login input validation</t>
+  </si>
+  <si>
+    <t>Empty username or password</t>
+  </si>
+  <si>
+    <t>Profile creation test</t>
+  </si>
+  <si>
+    <t>Valid profile data</t>
+  </si>
+  <si>
+    <t>Profile stored successfully</t>
+  </si>
+  <si>
+    <t>Profile update test</t>
+  </si>
+  <si>
+    <t>Modify existing profile details</t>
+  </si>
+  <si>
+    <t>Existing user profile</t>
+  </si>
+  <si>
+    <t>Updated profile saved</t>
+  </si>
+  <si>
+    <t>Health assist API response</t>
+  </si>
+  <si>
+    <t>Wellness plan generated</t>
+  </si>
+  <si>
+    <t>Multi-agent invocation test</t>
+  </si>
+  <si>
+    <t>Trigger health assist request</t>
+  </si>
+  <si>
+    <t>Valid symptoms</t>
+  </si>
+  <si>
+    <t>All agents invoked successfully</t>
+  </si>
+  <si>
+    <t>Agent orchestration test</t>
+  </si>
+  <si>
+    <t>Execute orchestrator logic</t>
+  </si>
+  <si>
+    <t>Agents available</t>
+  </si>
+  <si>
+    <t>Unified JSON response created</t>
+  </si>
+  <si>
+    <t>Structured output validation</t>
+  </si>
+  <si>
+    <t>Verify synthesized_guidance and recommendations</t>
+  </si>
+  <si>
+    <t>Valid agent outputs</t>
+  </si>
+  <si>
+    <t>Proper structured response</t>
+  </si>
+  <si>
+    <t>Shared memory persistence test</t>
+  </si>
+  <si>
+    <t>Context-aware response returned</t>
+  </si>
+  <si>
+    <t>Follow-up API validation</t>
+  </si>
+  <si>
+    <t>Relevant answer generated</t>
+  </si>
+  <si>
+    <t>Invalid follow-up input test</t>
+  </si>
+  <si>
+    <t>Send empty follow-up question</t>
+  </si>
+  <si>
+    <t>Empty question</t>
+  </si>
+  <si>
+    <t>Validation error handled</t>
+  </si>
+  <si>
+    <t>Recommendations API test</t>
+  </si>
+  <si>
+    <t>Recommendation list returned</t>
+  </si>
+  <si>
+    <t>Frontend-backend integration</t>
+  </si>
+  <si>
+    <t>Trigger API calls from frontend UI</t>
+  </si>
+  <si>
+    <t>Backend running</t>
+  </si>
+  <si>
+    <t>Data displayed correctly</t>
+  </si>
+  <si>
+    <t>Markdown rendering test</t>
+  </si>
+  <si>
+    <t>Load wellness plan in UI</t>
+  </si>
+  <si>
+    <t>Markdown content</t>
+  </si>
+  <si>
+    <t>Proper formatted output shown</t>
+  </si>
+  <si>
+    <t>Error handling test</t>
+  </si>
+  <si>
+    <t>Simulate API failure</t>
+  </si>
+  <si>
+    <t>Backend error</t>
+  </si>
+  <si>
+    <t>Safe error message displayed</t>
+  </si>
+  <si>
+    <t>Send valid username and password to /login API</t>
+  </si>
+  <si>
+    <t>Call /login API with empty fields</t>
+  </si>
+  <si>
+    <t>Send symptoms to /health-assist API</t>
+  </si>
+  <si>
+    <t>Call /follow-up API</t>
+  </si>
+  <si>
+    <t>Call /recommendations API</t>
   </si>
 </sst>
 </file>
@@ -65,16 +260,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color indexed="56"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,14 +315,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,80 +639,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF95B16C-182C-4757-B929-A728708A2DB0}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="2" spans="1:6" ht="52" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="52" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
